--- a/Simulacion/solucion_impl.xlsx
+++ b/Simulacion/solucion_impl.xlsx
@@ -503,46 +503,46 @@
         <v>21235</v>
       </c>
       <c r="B2" t="n">
-        <v>2996</v>
+        <v>2971.9</v>
       </c>
       <c r="C2" t="n">
-        <v>758.4000000000019</v>
+        <v>782.5000000000023</v>
       </c>
       <c r="D2" t="n">
-        <v>2996.850000000001</v>
+        <v>2972.050000000001</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8749277777777781</v>
+        <v>0.8897578616352203</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8749277777777781</v>
+        <v>0.8897578616352203</v>
       </c>
       <c r="H2" t="n">
-        <v>13.13333333333333</v>
+        <v>13.13207547169811</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2171786546786549</v>
+        <v>0.1913919413919418</v>
       </c>
       <c r="J2" t="n">
-        <v>984756250</v>
+        <v>968030000</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>218359</v>
+        <v>222066.5</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6478394410</v>
+        <v>6614588770</v>
       </c>
       <c r="O2" t="n">
-        <v>5493419801</v>
+        <v>5646336703.5</v>
       </c>
     </row>
   </sheetData>
